--- a/Config/data_config/Battle.xlsx
+++ b/Config/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19320" windowHeight="11700"/>
+    <workbookView windowWidth="28440" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1234,8 +1234,8 @@
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2039,7 +2039,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2056,7 +2056,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Config/data_config/Battle.xlsx
+++ b/Config/data_config/Battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28440" windowHeight="11250"/>
+    <workbookView windowWidth="28440" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="55">
   <si>
     <t>#</t>
   </si>
@@ -97,6 +97,9 @@
     <t>processId</t>
   </si>
   <si>
+    <t>passRewardId</t>
+  </si>
+  <si>
     <t>battleConfigId</t>
   </si>
   <si>
@@ -143,6 +146,9 @@
   </si>
   <si>
     <t>关卡流程id</t>
+  </si>
+  <si>
+    <t>通关奖励id</t>
   </si>
   <si>
     <t>战斗配置id</t>
@@ -1232,10 +1238,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1247,11 +1253,12 @@
     <col min="8" max="8" width="30.5" customWidth="1"/>
     <col min="9" max="9" width="31.75" style="1" customWidth="1"/>
     <col min="10" max="11" width="16.75" customWidth="1"/>
-    <col min="12" max="12" width="16" style="2" customWidth="1"/>
-    <col min="13" max="13" width="43.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.75" customWidth="1"/>
+    <col min="13" max="13" width="16" style="2" customWidth="1"/>
+    <col min="14" max="14" width="43.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1285,96 +1292,105 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" ht="93" customHeight="1" spans="1:13">
+    <row r="3" ht="93" customHeight="1" spans="1:14">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="L3" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="M3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1382,10 +1398,10 @@
         <v>5001011</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -1397,10 +1413,10 @@
         <v>6001001</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3">
         <v>10000</v>
@@ -1408,14 +1424,15 @@
       <c r="K4" s="3">
         <v>101</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="3"/>
+      <c r="M4" s="2">
         <v>8001001</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>32</v>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1423,10 +1440,10 @@
         <v>5001012</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1438,10 +1455,10 @@
         <v>6001001</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3">
         <v>10000</v>
@@ -1449,14 +1466,15 @@
       <c r="K5" s="3">
         <v>101</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3"/>
+      <c r="M5" s="2">
         <v>8001001</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>32</v>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1464,10 +1482,10 @@
         <v>5001013</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1479,10 +1497,10 @@
         <v>6001001</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J6" s="3">
         <v>10000</v>
@@ -1490,14 +1508,15 @@
       <c r="K6" s="3">
         <v>101</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="3"/>
+      <c r="M6" s="2">
         <v>8001001</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>32</v>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1505,10 +1524,10 @@
         <v>5001014</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1520,10 +1539,10 @@
         <v>6001001</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J7" s="3">
         <v>10000</v>
@@ -1531,14 +1550,15 @@
       <c r="K7" s="3">
         <v>101</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="3"/>
+      <c r="M7" s="2">
         <v>8001001</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>32</v>
+      <c r="N7" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1546,10 +1566,10 @@
         <v>5001015</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -1561,10 +1581,10 @@
         <v>6001001</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J8" s="3">
         <v>10000</v>
@@ -1572,14 +1592,15 @@
       <c r="K8" s="3">
         <v>101</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="3"/>
+      <c r="M8" s="2">
         <v>8001001</v>
       </c>
-      <c r="M8" s="2" t="s">
-        <v>32</v>
+      <c r="N8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="3:11">
+    <row r="9" spans="3:12">
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1589,8 +1610,9 @@
       <c r="I9" s="7"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1598,10 +1620,10 @@
         <v>5001021</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -1616,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J10" s="3">
         <v>10000</v>
@@ -1624,14 +1646,15 @@
       <c r="K10" s="3">
         <v>101</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="3"/>
+      <c r="M10" s="2">
         <v>8001001</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>38</v>
+      <c r="N10" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1639,10 +1662,10 @@
         <v>5001022</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1657,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J11" s="3">
         <v>10000</v>
@@ -1665,14 +1688,15 @@
       <c r="K11" s="3">
         <v>101</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="2">
         <v>8001001</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>32</v>
+      <c r="N11" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1680,10 +1704,10 @@
         <v>5001023</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E12" s="3">
         <v>1</v>
@@ -1698,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J12" s="3">
         <v>10000</v>
@@ -1706,14 +1730,15 @@
       <c r="K12" s="3">
         <v>101</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="3"/>
+      <c r="M12" s="2">
         <v>8001001</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>32</v>
+      <c r="N12" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="13" spans="3:11">
+    <row r="13" spans="3:12">
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1723,8 +1748,9 @@
       <c r="I13" s="7"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1732,10 +1758,10 @@
         <v>5001031</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3">
         <v>1</v>
@@ -1750,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J14" s="3">
         <v>10000</v>
@@ -1758,14 +1784,15 @@
       <c r="K14" s="3">
         <v>101</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="3"/>
+      <c r="M14" s="2">
         <v>8001001</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>42</v>
+      <c r="N14" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1773,10 +1800,10 @@
         <v>5001032</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="3">
         <v>1</v>
@@ -1791,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J15" s="3">
         <v>10000</v>
@@ -1799,14 +1826,15 @@
       <c r="K15" s="3">
         <v>101</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="3"/>
+      <c r="M15" s="2">
         <v>8001001</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>32</v>
+      <c r="N15" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1814,10 +1842,10 @@
         <v>5001033</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1832,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J16" s="3">
         <v>10000</v>
@@ -1840,14 +1868,15 @@
       <c r="K16" s="3">
         <v>101</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="2">
         <v>8001001</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>32</v>
+      <c r="N16" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:12">
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1857,8 +1886,9 @@
       <c r="I17" s="7"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1866,10 +1896,10 @@
         <v>5002001</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3">
         <v>10</v>
@@ -1884,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J18" s="3">
         <v>10000</v>
@@ -1892,14 +1922,15 @@
       <c r="K18" s="3">
         <v>101</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="3"/>
+      <c r="M18" s="2">
         <v>8002001</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>32</v>
+      <c r="N18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1907,10 +1938,10 @@
         <v>5900001</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1922,10 +1953,10 @@
         <v>6001001</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J23" s="3">
         <v>10000</v>
@@ -1933,14 +1964,15 @@
       <c r="K23" s="3">
         <v>101</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="3"/>
+      <c r="M23" s="2">
         <v>8001001</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>32</v>
+      <c r="N23" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:14">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1948,10 +1980,10 @@
         <v>5900002</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1963,10 +1995,10 @@
         <v>6001001</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J24" s="3">
         <v>10000</v>
@@ -1974,14 +2006,15 @@
       <c r="K24" s="3">
         <v>101</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="3"/>
+      <c r="M24" s="2">
         <v>8001001</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>32</v>
+      <c r="N24" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -1989,10 +2022,10 @@
         <v>5900010</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -2004,10 +2037,10 @@
         <v>6003001</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J26" s="3">
         <v>120000</v>
@@ -2015,11 +2048,14 @@
       <c r="K26" s="3">
         <v>101</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="3">
+        <v>101001</v>
+      </c>
+      <c r="M26" s="2">
         <v>8001001</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>32</v>
+      <c r="N26" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="8:8">
